--- a/wolf/Excel/Back_背部.xlsx
+++ b/wolf/Excel/Back_背部.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
   <si>
     <t>Int</t>
   </si>
@@ -73,10 +73,22 @@
     <t>精灵翅膀</t>
   </si>
   <si>
+    <t>0|0|0|0|0|180|1|1|1</t>
+  </si>
+  <si>
+    <t>0|0|-20|0|0|90|1|1|1</t>
+  </si>
+  <si>
     <t>棺材</t>
   </si>
   <si>
     <t>0|0|-132|0|0|90|1|1|1</t>
+  </si>
+  <si>
+    <t>环绕</t>
+  </si>
+  <si>
+    <t>0|0|-18|0|0|0|1.2|1.2|1.2</t>
   </si>
   <si>
     <t>30|0|0|0|0|90|1|1|1</t>
@@ -89,6 +101,12 @@
   </si>
   <si>
     <t>30|0|0|0|0|0|1|1|1</t>
+  </si>
+  <si>
+    <t>闪电</t>
+  </si>
+  <si>
+    <t>0|0|0|0|0|0|1|1|1</t>
   </si>
   <si>
     <t>飞行背包</t>
@@ -115,9 +133,6 @@
   </si>
   <si>
     <t>小熊背包</t>
-  </si>
-  <si>
-    <t>0|0|0|0|0|0|1|1|1</t>
   </si>
 </sst>
 </file>
@@ -1307,10 +1322,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U231"/>
+  <dimension ref="A1:U246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.05" defaultRowHeight="16.5"/>
@@ -2035,14 +2050,12 @@
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="2">
-        <v>117847</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>15</v>
+        <v>211666</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -2068,11 +2081,12 @@
       <c r="A25" s="2">
         <v>21</v>
       </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="2">
-        <v>88757</v>
+        <v>178438</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -2098,11 +2112,12 @@
       <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="C26" s="1">
-        <v>88756</v>
+      <c r="B26" s="4"/>
+      <c r="C26" s="2">
+        <v>378668</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -2128,11 +2143,12 @@
       <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="C27" s="1">
-        <v>88767</v>
+      <c r="B27" s="4"/>
+      <c r="C27" s="2">
+        <v>342526</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -2158,11 +2174,12 @@
       <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="C28" s="1">
-        <v>88770</v>
+      <c r="B28" s="4"/>
+      <c r="C28" s="2">
+        <v>342525</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -2188,11 +2205,12 @@
       <c r="A29" s="2">
         <v>25</v>
       </c>
-      <c r="C29" s="1">
-        <v>88769</v>
+      <c r="B29" s="4"/>
+      <c r="C29" s="2">
+        <v>340180</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -2218,12 +2236,12 @@
       <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1">
-        <v>127018</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>17</v>
+      <c r="B30" s="4"/>
+      <c r="C30" s="2">
+        <v>340178</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -2249,12 +2267,12 @@
       <c r="A31" s="2">
         <v>27</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="2">
-        <v>127019</v>
+        <v>145910</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -2280,12 +2298,12 @@
       <c r="A32" s="2">
         <v>28</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="2">
-        <v>155677</v>
+        <v>145909</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -2311,12 +2329,12 @@
       <c r="A33" s="2">
         <v>29</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="2">
-        <v>155680</v>
+        <v>145908</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -2342,12 +2360,12 @@
       <c r="A34" s="2">
         <v>30</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="4"/>
       <c r="C34" s="2">
-        <v>155682</v>
+        <v>145907</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -2373,12 +2391,12 @@
       <c r="A35" s="2">
         <v>31</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="2">
-        <v>155684</v>
+        <v>145906</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -2404,12 +2422,12 @@
       <c r="A36" s="2">
         <v>32</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="2">
-        <v>155705</v>
+        <v>145904</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -2435,12 +2453,14 @@
       <c r="A37" s="2">
         <v>33</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C37" s="2">
-        <v>155706</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>16</v>
+        <v>117847</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -2466,12 +2486,14 @@
       <c r="A38" s="2">
         <v>34</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C38" s="2">
-        <v>155707</v>
+        <v>146784</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -2497,12 +2519,11 @@
       <c r="A39" s="2">
         <v>35</v>
       </c>
-      <c r="B39" s="2"/>
       <c r="C39" s="2">
-        <v>157113</v>
+        <v>88757</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -2528,12 +2549,11 @@
       <c r="A40" s="2">
         <v>36</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2">
-        <v>157118</v>
+      <c r="C40" s="1">
+        <v>88756</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -2559,12 +2579,11 @@
       <c r="A41" s="2">
         <v>37</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2">
-        <v>157119</v>
+      <c r="C41" s="1">
+        <v>88767</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -2590,12 +2609,11 @@
       <c r="A42" s="2">
         <v>38</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2">
-        <v>157253</v>
+      <c r="C42" s="1">
+        <v>88770</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -2621,12 +2639,11 @@
       <c r="A43" s="2">
         <v>39</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2">
-        <v>157254</v>
+      <c r="C43" s="1">
+        <v>88769</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -2653,11 +2670,11 @@
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="2">
-        <v>160335</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>18</v>
+      <c r="C44" s="1">
+        <v>127018</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -2685,10 +2702,10 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2">
-        <v>160339</v>
+        <v>127019</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -2714,12 +2731,12 @@
       <c r="A46" s="2">
         <v>42</v>
       </c>
-      <c r="B46" s="4"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="2">
-        <v>160340</v>
+        <v>155677</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -2745,12 +2762,12 @@
       <c r="A47" s="2">
         <v>43</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="2">
-        <v>160342</v>
+        <v>155680</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -2776,12 +2793,12 @@
       <c r="A48" s="2">
         <v>44</v>
       </c>
-      <c r="B48" s="4"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="2">
-        <v>160344</v>
+        <v>155682</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
@@ -2807,12 +2824,12 @@
       <c r="A49" s="2">
         <v>45</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="2">
-        <v>160347</v>
+        <v>155684</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
@@ -2838,12 +2855,12 @@
       <c r="A50" s="2">
         <v>46</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="2">
-        <v>160345</v>
+        <v>155705</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -2869,12 +2886,12 @@
       <c r="A51" s="2">
         <v>47</v>
       </c>
-      <c r="B51" s="4"/>
+      <c r="B51" s="2"/>
       <c r="C51" s="2">
-        <v>160343</v>
+        <v>155706</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -2900,12 +2917,12 @@
       <c r="A52" s="2">
         <v>48</v>
       </c>
-      <c r="B52" s="4"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="2">
-        <v>301947</v>
+        <v>155707</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -2931,12 +2948,12 @@
       <c r="A53" s="2">
         <v>49</v>
       </c>
-      <c r="B53" s="4"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="2">
-        <v>326208</v>
+        <v>157113</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -2962,12 +2979,12 @@
       <c r="A54" s="2">
         <v>50</v>
       </c>
-      <c r="B54" s="4"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="2">
-        <v>326209</v>
+        <v>157118</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
@@ -2993,12 +3010,12 @@
       <c r="A55" s="2">
         <v>51</v>
       </c>
-      <c r="B55" s="4"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="2">
-        <v>326306</v>
+        <v>157119</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -3024,12 +3041,12 @@
       <c r="A56" s="2">
         <v>52</v>
       </c>
-      <c r="B56" s="4"/>
+      <c r="B56" s="2"/>
       <c r="C56" s="2">
-        <v>328807</v>
+        <v>157253</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
@@ -3055,12 +3072,12 @@
       <c r="A57" s="2">
         <v>53</v>
       </c>
-      <c r="B57" s="4"/>
+      <c r="B57" s="2"/>
       <c r="C57" s="2">
-        <v>445944</v>
+        <v>157254</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E57" s="2">
         <v>0</v>
@@ -3086,12 +3103,12 @@
       <c r="A58" s="2">
         <v>54</v>
       </c>
-      <c r="B58" s="4"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="2">
-        <v>499861</v>
+        <v>160335</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E58" s="2">
         <v>0</v>
@@ -3117,12 +3134,12 @@
       <c r="A59" s="2">
         <v>55</v>
       </c>
-      <c r="B59" s="4"/>
+      <c r="B59" s="2"/>
       <c r="C59" s="2">
-        <v>517323</v>
+        <v>160339</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
@@ -3150,10 +3167,10 @@
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="2">
-        <v>510179</v>
+        <v>160340</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E60" s="2">
         <v>0</v>
@@ -3181,10 +3198,10 @@
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="2">
-        <v>510182</v>
+        <v>160342</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E61" s="2">
         <v>0</v>
@@ -3212,10 +3229,10 @@
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="2">
-        <v>510184</v>
+        <v>160344</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E62" s="2">
         <v>0</v>
@@ -3243,10 +3260,10 @@
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="2">
-        <v>530877</v>
+        <v>160347</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E63" s="2">
         <v>0</v>
@@ -3274,10 +3291,10 @@
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="2">
-        <v>530878</v>
+        <v>160345</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E64" s="2">
         <v>0</v>
@@ -3305,10 +3322,10 @@
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="2">
-        <v>530881</v>
+        <v>160343</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
@@ -3334,14 +3351,12 @@
       <c r="A66" s="2">
         <v>62</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="4"/>
+      <c r="C66" s="2">
+        <v>301947</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C66" s="2">
-        <v>131208</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E66" s="2">
         <v>0</v>
@@ -3367,14 +3382,12 @@
       <c r="A67" s="2">
         <v>63</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B67" s="4"/>
       <c r="C67" s="2">
-        <v>454815</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>23</v>
+        <v>326208</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E67" s="2">
         <v>0</v>
@@ -3400,14 +3413,12 @@
       <c r="A68" s="2">
         <v>64</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B68" s="4"/>
       <c r="C68" s="2">
-        <v>454822</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>23</v>
+        <v>326209</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E68" s="2">
         <v>0</v>
@@ -3433,14 +3444,12 @@
       <c r="A69" s="2">
         <v>65</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B69" s="4"/>
       <c r="C69" s="2">
-        <v>454833</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>23</v>
+        <v>326306</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E69" s="2">
         <v>0</v>
@@ -3466,14 +3475,12 @@
       <c r="A70" s="2">
         <v>66</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="B70" s="4"/>
       <c r="C70" s="2">
-        <v>454834</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>23</v>
+        <v>328807</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
@@ -3495,16 +3502,16 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" ht="17.25" spans="1:21">
+    <row r="71" spans="1:21">
       <c r="A71" s="2">
         <v>67</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="6">
-        <v>132890</v>
+      <c r="B71" s="4"/>
+      <c r="C71" s="2">
+        <v>445944</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
@@ -3526,16 +3533,16 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" ht="17.25" spans="1:21">
+    <row r="72" spans="1:21">
       <c r="A72" s="2">
         <v>68</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="6">
-        <v>132891</v>
+      <c r="B72" s="4"/>
+      <c r="C72" s="2">
+        <v>499861</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
@@ -3561,12 +3568,12 @@
       <c r="A73" s="2">
         <v>69</v>
       </c>
-      <c r="B73" s="2"/>
+      <c r="B73" s="4"/>
       <c r="C73" s="2">
-        <v>132893</v>
+        <v>517323</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E73" s="2">
         <v>0</v>
@@ -3592,12 +3599,12 @@
       <c r="A74" s="2">
         <v>70</v>
       </c>
-      <c r="B74" s="2"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="2">
-        <v>132894</v>
+        <v>510179</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E74" s="2">
         <v>0</v>
@@ -3619,16 +3626,16 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" ht="17.25" spans="1:21">
+    <row r="75" spans="1:21">
       <c r="A75" s="2">
         <v>71</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="6">
-        <v>132892</v>
+      <c r="B75" s="4"/>
+      <c r="C75" s="2">
+        <v>510182</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E75" s="2">
         <v>0</v>
@@ -3654,12 +3661,12 @@
       <c r="A76" s="2">
         <v>72</v>
       </c>
-      <c r="B76" s="2"/>
+      <c r="B76" s="4"/>
       <c r="C76" s="2">
-        <v>402315</v>
+        <v>510184</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E76" s="2">
         <v>0</v>
@@ -3685,12 +3692,12 @@
       <c r="A77" s="2">
         <v>73</v>
       </c>
-      <c r="B77" s="2"/>
+      <c r="B77" s="4"/>
       <c r="C77" s="2">
-        <v>402301</v>
+        <v>530877</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
@@ -3716,12 +3723,12 @@
       <c r="A78" s="2">
         <v>74</v>
       </c>
-      <c r="B78" s="2"/>
+      <c r="B78" s="4"/>
       <c r="C78" s="2">
-        <v>397447</v>
+        <v>530878</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E78" s="2">
         <v>0</v>
@@ -3747,12 +3754,12 @@
       <c r="A79" s="2">
         <v>75</v>
       </c>
-      <c r="B79" s="2"/>
+      <c r="B79" s="4"/>
       <c r="C79" s="2">
-        <v>409377</v>
+        <v>530881</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E79" s="2">
         <v>0</v>
@@ -3774,16 +3781,18 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" ht="17.25" spans="1:21">
       <c r="A80" s="2">
         <v>76</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2">
-        <v>409330</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>16</v>
+      <c r="B80" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="6">
+        <v>142950</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -3809,12 +3818,14 @@
       <c r="A81" s="2">
         <v>77</v>
       </c>
-      <c r="B81" s="2"/>
+      <c r="B81" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C81" s="2">
-        <v>424761</v>
+        <v>131208</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E81" s="2">
         <v>0</v>
@@ -3840,12 +3851,14 @@
       <c r="A82" s="2">
         <v>78</v>
       </c>
-      <c r="B82" s="2"/>
+      <c r="B82" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C82" s="2">
-        <v>348269</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>16</v>
+        <v>454815</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E82" s="2">
         <v>0</v>
@@ -3871,12 +3884,14 @@
       <c r="A83" s="2">
         <v>79</v>
       </c>
-      <c r="B83" s="2"/>
+      <c r="B83" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C83" s="2">
-        <v>196412</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>16</v>
+        <v>454822</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E83" s="2">
         <v>0</v>
@@ -3902,12 +3917,14 @@
       <c r="A84" s="2">
         <v>80</v>
       </c>
-      <c r="B84" s="2"/>
+      <c r="B84" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C84" s="2">
-        <v>155703</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>16</v>
+        <v>454833</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E84" s="2">
         <v>0</v>
@@ -3930,11 +3947,21 @@
       <c r="U84" s="2"/>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="A85" s="2">
+        <v>81</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="2">
+        <v>454834</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -3952,12 +3979,20 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="1:21">
-      <c r="A86" s="2"/>
+    <row r="86" ht="17.25" spans="1:21">
+      <c r="A86" s="2">
+        <v>82</v>
+      </c>
       <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="C86" s="6">
+        <v>132890</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -3975,12 +4010,20 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="1:21">
-      <c r="A87" s="2"/>
+    <row r="87" ht="17.25" spans="1:21">
+      <c r="A87" s="2">
+        <v>83</v>
+      </c>
       <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="C87" s="6">
+        <v>132891</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -3999,11 +4042,19 @@
       <c r="U87" s="2"/>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="2"/>
+      <c r="A88" s="2">
+        <v>84</v>
+      </c>
       <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="C88" s="2">
+        <v>132893</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -4022,11 +4073,19 @@
       <c r="U88" s="2"/>
     </row>
     <row r="89" spans="1:21">
-      <c r="A89" s="2"/>
+      <c r="A89" s="2">
+        <v>85</v>
+      </c>
       <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="C89" s="2">
+        <v>132894</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -4044,12 +4103,20 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="1:21">
-      <c r="A90" s="2"/>
+    <row r="90" ht="17.25" spans="1:21">
+      <c r="A90" s="2">
+        <v>86</v>
+      </c>
       <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="C90" s="6">
+        <v>132892</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -4068,11 +4135,19 @@
       <c r="U90" s="2"/>
     </row>
     <row r="91" spans="1:21">
-      <c r="A91" s="2"/>
+      <c r="A91" s="2">
+        <v>87</v>
+      </c>
       <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="C91" s="2">
+        <v>402315</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -4091,11 +4166,19 @@
       <c r="U91" s="2"/>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="2"/>
+      <c r="A92" s="2">
+        <v>88</v>
+      </c>
       <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="C92" s="2">
+        <v>402301</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -4114,11 +4197,19 @@
       <c r="U92" s="2"/>
     </row>
     <row r="93" spans="1:21">
-      <c r="A93" s="2"/>
+      <c r="A93" s="2">
+        <v>89</v>
+      </c>
       <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
+      <c r="C93" s="2">
+        <v>397447</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -4137,11 +4228,19 @@
       <c r="U93" s="2"/>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="2"/>
+      <c r="A94" s="2">
+        <v>90</v>
+      </c>
       <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="C94" s="2">
+        <v>409377</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -4160,11 +4259,19 @@
       <c r="U94" s="2"/>
     </row>
     <row r="95" spans="1:21">
-      <c r="A95" s="2"/>
+      <c r="A95" s="2">
+        <v>91</v>
+      </c>
       <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="C95" s="2">
+        <v>409330</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -4183,11 +4290,19 @@
       <c r="U95" s="2"/>
     </row>
     <row r="96" spans="1:21">
-      <c r="A96" s="2"/>
+      <c r="A96" s="2">
+        <v>92</v>
+      </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="C96" s="2">
+        <v>424761</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -4206,11 +4321,19 @@
       <c r="U96" s="2"/>
     </row>
     <row r="97" spans="1:21">
-      <c r="A97" s="2"/>
+      <c r="A97" s="2">
+        <v>93</v>
+      </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
+      <c r="C97" s="2">
+        <v>348269</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -4229,11 +4352,19 @@
       <c r="U97" s="2"/>
     </row>
     <row r="98" spans="1:21">
-      <c r="A98" s="2"/>
+      <c r="A98" s="2">
+        <v>94</v>
+      </c>
       <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="C98" s="2">
+        <v>196412</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -4252,11 +4383,19 @@
       <c r="U98" s="2"/>
     </row>
     <row r="99" spans="1:21">
-      <c r="A99" s="2"/>
+      <c r="A99" s="2">
+        <v>95</v>
+      </c>
       <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="C99" s="2">
+        <v>155703</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -7310,6 +7449,351 @@
       <c r="T231" s="2"/>
       <c r="U231" s="2"/>
     </row>
+    <row r="232" spans="1:21">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+      <c r="M232" s="2"/>
+      <c r="N232" s="2"/>
+      <c r="O232" s="2"/>
+      <c r="P232" s="2"/>
+      <c r="Q232" s="2"/>
+      <c r="R232" s="2"/>
+      <c r="S232" s="2"/>
+      <c r="T232" s="2"/>
+      <c r="U232" s="2"/>
+    </row>
+    <row r="233" spans="1:21">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+      <c r="M233" s="2"/>
+      <c r="N233" s="2"/>
+      <c r="O233" s="2"/>
+      <c r="P233" s="2"/>
+      <c r="Q233" s="2"/>
+      <c r="R233" s="2"/>
+      <c r="S233" s="2"/>
+      <c r="T233" s="2"/>
+      <c r="U233" s="2"/>
+    </row>
+    <row r="234" spans="1:21">
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="M234" s="2"/>
+      <c r="N234" s="2"/>
+      <c r="O234" s="2"/>
+      <c r="P234" s="2"/>
+      <c r="Q234" s="2"/>
+      <c r="R234" s="2"/>
+      <c r="S234" s="2"/>
+      <c r="T234" s="2"/>
+      <c r="U234" s="2"/>
+    </row>
+    <row r="235" spans="1:21">
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+      <c r="L235" s="2"/>
+      <c r="M235" s="2"/>
+      <c r="N235" s="2"/>
+      <c r="O235" s="2"/>
+      <c r="P235" s="2"/>
+      <c r="Q235" s="2"/>
+      <c r="R235" s="2"/>
+      <c r="S235" s="2"/>
+      <c r="T235" s="2"/>
+      <c r="U235" s="2"/>
+    </row>
+    <row r="236" spans="1:21">
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+      <c r="L236" s="2"/>
+      <c r="M236" s="2"/>
+      <c r="N236" s="2"/>
+      <c r="O236" s="2"/>
+      <c r="P236" s="2"/>
+      <c r="Q236" s="2"/>
+      <c r="R236" s="2"/>
+      <c r="S236" s="2"/>
+      <c r="T236" s="2"/>
+      <c r="U236" s="2"/>
+    </row>
+    <row r="237" spans="1:21">
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2"/>
+      <c r="K237" s="2"/>
+      <c r="L237" s="2"/>
+      <c r="M237" s="2"/>
+      <c r="N237" s="2"/>
+      <c r="O237" s="2"/>
+      <c r="P237" s="2"/>
+      <c r="Q237" s="2"/>
+      <c r="R237" s="2"/>
+      <c r="S237" s="2"/>
+      <c r="T237" s="2"/>
+      <c r="U237" s="2"/>
+    </row>
+    <row r="238" spans="1:21">
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
+      <c r="J238" s="2"/>
+      <c r="K238" s="2"/>
+      <c r="L238" s="2"/>
+      <c r="M238" s="2"/>
+      <c r="N238" s="2"/>
+      <c r="O238" s="2"/>
+      <c r="P238" s="2"/>
+      <c r="Q238" s="2"/>
+      <c r="R238" s="2"/>
+      <c r="S238" s="2"/>
+      <c r="T238" s="2"/>
+      <c r="U238" s="2"/>
+    </row>
+    <row r="239" spans="1:21">
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="2"/>
+      <c r="I239" s="2"/>
+      <c r="J239" s="2"/>
+      <c r="K239" s="2"/>
+      <c r="L239" s="2"/>
+      <c r="M239" s="2"/>
+      <c r="N239" s="2"/>
+      <c r="O239" s="2"/>
+      <c r="P239" s="2"/>
+      <c r="Q239" s="2"/>
+      <c r="R239" s="2"/>
+      <c r="S239" s="2"/>
+      <c r="T239" s="2"/>
+      <c r="U239" s="2"/>
+    </row>
+    <row r="240" spans="1:21">
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2"/>
+      <c r="K240" s="2"/>
+      <c r="L240" s="2"/>
+      <c r="M240" s="2"/>
+      <c r="N240" s="2"/>
+      <c r="O240" s="2"/>
+      <c r="P240" s="2"/>
+      <c r="Q240" s="2"/>
+      <c r="R240" s="2"/>
+      <c r="S240" s="2"/>
+      <c r="T240" s="2"/>
+      <c r="U240" s="2"/>
+    </row>
+    <row r="241" spans="1:21">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="2"/>
+      <c r="L241" s="2"/>
+      <c r="M241" s="2"/>
+      <c r="N241" s="2"/>
+      <c r="O241" s="2"/>
+      <c r="P241" s="2"/>
+      <c r="Q241" s="2"/>
+      <c r="R241" s="2"/>
+      <c r="S241" s="2"/>
+      <c r="T241" s="2"/>
+      <c r="U241" s="2"/>
+    </row>
+    <row r="242" spans="1:21">
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="2"/>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="2"/>
+      <c r="M242" s="2"/>
+      <c r="N242" s="2"/>
+      <c r="O242" s="2"/>
+      <c r="P242" s="2"/>
+      <c r="Q242" s="2"/>
+      <c r="R242" s="2"/>
+      <c r="S242" s="2"/>
+      <c r="T242" s="2"/>
+      <c r="U242" s="2"/>
+    </row>
+    <row r="243" spans="1:21">
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+      <c r="H243" s="2"/>
+      <c r="I243" s="2"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="2"/>
+      <c r="L243" s="2"/>
+      <c r="M243" s="2"/>
+      <c r="N243" s="2"/>
+      <c r="O243" s="2"/>
+      <c r="P243" s="2"/>
+      <c r="Q243" s="2"/>
+      <c r="R243" s="2"/>
+      <c r="S243" s="2"/>
+      <c r="T243" s="2"/>
+      <c r="U243" s="2"/>
+    </row>
+    <row r="244" spans="1:21">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+      <c r="H244" s="2"/>
+      <c r="I244" s="2"/>
+      <c r="J244" s="2"/>
+      <c r="K244" s="2"/>
+      <c r="L244" s="2"/>
+      <c r="M244" s="2"/>
+      <c r="N244" s="2"/>
+      <c r="O244" s="2"/>
+      <c r="P244" s="2"/>
+      <c r="Q244" s="2"/>
+      <c r="R244" s="2"/>
+      <c r="S244" s="2"/>
+      <c r="T244" s="2"/>
+      <c r="U244" s="2"/>
+    </row>
+    <row r="245" spans="1:21">
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2"/>
+      <c r="K245" s="2"/>
+      <c r="L245" s="2"/>
+      <c r="M245" s="2"/>
+      <c r="N245" s="2"/>
+      <c r="O245" s="2"/>
+      <c r="P245" s="2"/>
+      <c r="Q245" s="2"/>
+      <c r="R245" s="2"/>
+      <c r="S245" s="2"/>
+      <c r="T245" s="2"/>
+      <c r="U245" s="2"/>
+    </row>
+    <row r="246" spans="1:21">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="2"/>
+      <c r="J246" s="2"/>
+      <c r="K246" s="2"/>
+      <c r="L246" s="2"/>
+      <c r="M246" s="2"/>
+      <c r="N246" s="2"/>
+      <c r="O246" s="2"/>
+      <c r="P246" s="2"/>
+      <c r="Q246" s="2"/>
+      <c r="R246" s="2"/>
+      <c r="S246" s="2"/>
+      <c r="T246" s="2"/>
+      <c r="U246" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
